--- a/Data/Outputdata/LogTable.xlsx
+++ b/Data/Outputdata/LogTable.xlsx
@@ -1,173 +1,376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\HR_ASSISTANT\Data\Outputdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8BCCF-E562-4A0F-B59F-76434A2093EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F92A46C4-C67F-45A6-ACC0-03F9C21E99F2}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1A6B59-3C49-4C4B-8133-E1AC2C843C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{F92A46C4-C67F-45A6-ACC0-03F9C21E99F2}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Skill Set</t>
-  </si>
-  <si>
-    <t>Adress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASMINE 
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skill Set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adress</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JASMINE 
 NETO 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0713728531 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Python 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">0713728531 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• Python 
 • UiPath 
 • Power BI 
 • Java Script 
 • HTML 
 • Node js 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stevendeke@gmail.com 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEVE 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stevendeke@gmail.com 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">STEVE 
 NDEKE 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0713728531 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Python 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• Python 
 • UiPath 
 • Java Script 
 • HTML 
 • R 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stevendeke@gmail.com 
-</t>
-  </si>
-</sst>
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">075512345 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• C++ 
+• SPSS 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Stevendeke639@gmail.com 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">071312345 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• Python 
+• R 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PESH 
+KIRIGO 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">078812345 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• Android 
+• Python 
+• Accounting 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">penina@gmail.com 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">STEVE 
+NDEKE 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">071312345 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">• Python 
+• R 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stevendeke@gmail.com 
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="41">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,89 +669,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4CFCBA-2B70-4720-AF7C-99C4B95EAD5D}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{6A4CFCBA-2B70-4720-AF7C-99C4B95EAD5D}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D29"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:D29"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="25.816406" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="26.089844" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="43.453125" style="7" customWidth="1"/>
+    <x:col min="4" max="4" width="32" style="7" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="12" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A10" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C10" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D10" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A11" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A12" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A13" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D13" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A14" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C14" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A15" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B15" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C15" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D15" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A16" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D16" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A17" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B17" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C17" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A18" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B18" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D18" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A19" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B19" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A20" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C20" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D20" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A21" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B21" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D21" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A22" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B22" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D22" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A23" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C23" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D23" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A24" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C24" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D24" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A25" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B25" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C25" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A26" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B26" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C26" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D26" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A27" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B27" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C27" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D27" s="9" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:4" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A28" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B28" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D28" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A29" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C29" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D29" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B30" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C30" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D30" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B31" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C31" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D31" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C32" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D32" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B33" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C33" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D33" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B34" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C34" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D34" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B35" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C35" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D35" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B36" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C36" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D36" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B37" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C37" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D37" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B38" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C38" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D38" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B39" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C39" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D39" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B40" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C40" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D40" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B41" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C41" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D41" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B6A9E8-C65B-4858-87C1-18AA21166D30}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{83B6A9E8-C65B-4858-87C1-18AA21166D30}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Outputdata/LogTable.xlsx
+++ b/Data/Outputdata/LogTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\HR_ASSISTANT\Data\Outputdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192A384-69D1-480E-9891-85016E70EDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA09AFBD-C124-4E7A-820A-CE3F54684105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{F92A46C4-C67F-45A6-ACC0-03F9C21E99F2}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{F92A46C4-C67F-45A6-ACC0-03F9C21E99F2}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -102,15 +102,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">stevendeke@gmail.com 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">KIBUJA 
-NDK 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">• 
 </x:t>
   </x:si>
   <x:si>
@@ -185,7 +176,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="35">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -193,88 +184,16 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -293,15 +212,15 @@
   <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -310,16 +229,16 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -645,53 +564,53 @@
   <x:dimension ref="A1:E48"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B7" sqref="B7 B7:B7"/>
+      <x:selection activeCell="C5" sqref="C5 C5:C5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.816406" style="7" customWidth="1"/>
-    <x:col min="2" max="2" width="26.089844" style="7" customWidth="1"/>
-    <x:col min="3" max="3" width="43.453125" style="7" customWidth="1"/>
+    <x:col min="1" max="1" width="25.777344" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="26.109375" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="43.441406" style="7" customWidth="1"/>
     <x:col min="4" max="4" width="32" style="7" customWidth="1"/>
-    <x:col min="5" max="5" width="22.816406" style="7" customWidth="1"/>
+    <x:col min="5" max="5" width="22.777344" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="10" t="s">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="10" t="s">
+      <x:c r="B1" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="10" t="s">
+      <x:c r="C1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="10" t="s">
+      <x:c r="D1" s="11" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="10" t="s">
+      <x:c r="E1" s="11" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="11" t="s">
+    <x:row r="2" spans="1:5" customFormat="1" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="11" t="s">
+      <x:c r="C2" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="11" t="s">
+      <x:c r="D2" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="9" t="n">
-        <x:v>0.000124247685185185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <x:c r="E2" s="10" t="n">
+        <x:v>5.24305555555556E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" customFormat="1" ht="128.55" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -701,14 +620,14 @@
       <x:c r="C3" s="8" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D3" s="11" t="s">
+      <x:c r="D3" s="9" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="12" t="n">
-        <x:v>0.000123865740740741</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <x:v>4.83217592592593E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" customFormat="1" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -718,412 +637,334 @@
       <x:c r="C4" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D4" s="11" t="s">
+      <x:c r="D4" s="9" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E4" s="9" t="n">
-        <x:v>0.000109537037037037</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E4" s="10" t="n">
+        <x:v>4.19791666666667E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="n">
+        <x:v>0.000197418981481481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="n">
+        <x:v>0.000168854166666667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B5" s="8" t="s"/>
-      <x:c r="C5" s="8" t="s">
+      <x:c r="B7" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D5" s="11" t="s"/>
-      <x:c r="E5" s="9" t="n">
-        <x:v>0.000876655092592593</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A6" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C6" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E6" s="9" t="n">
-        <x:v>0.000125717592592593</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A7" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E7" s="9" t="n">
-        <x:v>0.000111145833333333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A8" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="12" t="n">
-        <x:v>0.000106284722222222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A9" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="n">
+        <x:v>0.000196284722222222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="8" t="s"/>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s"/>
+      <x:c r="D8" s="8" t="s"/>
+      <x:c r="E8" s="12" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="8" t="s"/>
       <x:c r="B9" s="8" t="s"/>
-      <x:c r="C9" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="C9" s="8" t="s"/>
       <x:c r="D9" s="8" t="s"/>
-      <x:c r="E9" s="12" t="n">
-        <x:v>0.000887175925925926</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A10" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E10" s="12" t="n">
-        <x:v>0.000113969907407407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A11" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E11" s="12" t="n">
-        <x:v>0.00011712962962963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A12" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B12" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C12" s="8" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D12" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E12" s="12" t="n">
-        <x:v>0.000104918981481481</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A13" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E9" s="12" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:5" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="8" t="s"/>
+      <x:c r="B10" s="8" t="s"/>
+      <x:c r="C10" s="8" t="s"/>
+      <x:c r="D10" s="8" t="s"/>
+      <x:c r="E10" s="12" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="8" t="s"/>
+      <x:c r="B11" s="8" t="s"/>
+      <x:c r="C11" s="8" t="s"/>
+      <x:c r="D11" s="8" t="s"/>
+      <x:c r="E11" s="12" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="8" t="s"/>
+      <x:c r="B12" s="8" t="s"/>
+      <x:c r="C12" s="8" t="s"/>
+      <x:c r="D12" s="8" t="s"/>
+      <x:c r="E12" s="12" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:5" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="8" t="s"/>
       <x:c r="B13" s="8" t="s"/>
-      <x:c r="C13" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="C13" s="8" t="s"/>
       <x:c r="D13" s="8" t="s"/>
-      <x:c r="E13" s="12" t="n">
-        <x:v>0.000841180555555556</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A14" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B14" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C14" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D14" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E14" s="12" t="n">
-        <x:v>0.000103726851851852</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A15" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B15" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D15" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E15" s="12" t="n">
-        <x:v>0.000101226851851852</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A16" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B16" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C16" s="8" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D16" s="8" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E16" s="12" t="n">
-        <x:v>0.000108576388888889</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E13" s="12" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="8" t="s"/>
+      <x:c r="B14" s="8" t="s"/>
+      <x:c r="C14" s="8" t="s"/>
+      <x:c r="D14" s="8" t="s"/>
+      <x:c r="E14" s="12" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:5" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="8" t="s"/>
+      <x:c r="B15" s="8" t="s"/>
+      <x:c r="C15" s="8" t="s"/>
+      <x:c r="D15" s="8" t="s"/>
+      <x:c r="E15" s="12" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="8" t="s"/>
+      <x:c r="B16" s="8" t="s"/>
+      <x:c r="C16" s="8" t="s"/>
+      <x:c r="D16" s="8" t="s"/>
+      <x:c r="E16" s="12" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:5" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="8" t="s"/>
       <x:c r="B17" s="8" t="s"/>
       <x:c r="C17" s="8" t="s"/>
       <x:c r="D17" s="8" t="s"/>
-      <x:c r="E17" s="7" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E17" s="12" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A18" s="8" t="s"/>
       <x:c r="B18" s="8" t="s"/>
       <x:c r="C18" s="8" t="s"/>
       <x:c r="D18" s="8" t="s"/>
-      <x:c r="E18" s="7" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:5" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="8" t="s"/>
       <x:c r="B19" s="8" t="s"/>
       <x:c r="C19" s="8" t="s"/>
       <x:c r="D19" s="8" t="s"/>
-      <x:c r="E19" s="7" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:5" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="8" t="s"/>
       <x:c r="B20" s="8" t="s"/>
       <x:c r="C20" s="8" t="s"/>
       <x:c r="D20" s="8" t="s"/>
-      <x:c r="E20" s="7" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A21" s="8" t="s"/>
       <x:c r="B21" s="8" t="s"/>
       <x:c r="C21" s="8" t="s"/>
       <x:c r="D21" s="8" t="s"/>
-      <x:c r="E21" s="7" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A22" s="8" t="s"/>
       <x:c r="B22" s="8" t="s"/>
       <x:c r="C22" s="8" t="s"/>
       <x:c r="D22" s="8" t="s"/>
-      <x:c r="E22" s="7" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A23" s="8" t="s"/>
       <x:c r="B23" s="8" t="s"/>
       <x:c r="C23" s="8" t="s"/>
       <x:c r="D23" s="8" t="s"/>
-      <x:c r="E23" s="7" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A24" s="8" t="s"/>
       <x:c r="B24" s="8" t="s"/>
       <x:c r="C24" s="8" t="s"/>
       <x:c r="D24" s="8" t="s"/>
-      <x:c r="E24" s="7" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A25" s="8" t="s"/>
       <x:c r="B25" s="8" t="s"/>
       <x:c r="C25" s="8" t="s"/>
       <x:c r="D25" s="8" t="s"/>
-      <x:c r="E25" s="7" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:5" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A26" s="8" t="s"/>
       <x:c r="B26" s="8" t="s"/>
       <x:c r="C26" s="8" t="s"/>
       <x:c r="D26" s="8" t="s"/>
-      <x:c r="E26" s="7" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="E26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:5" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="8" t="s"/>
       <x:c r="B27" s="8" t="s"/>
       <x:c r="C27" s="8" t="s"/>
       <x:c r="D27" s="8" t="s"/>
       <x:c r="E27" s="7" t="s"/>
     </x:row>
-    <x:row r="28" spans="1:5" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="28" spans="1:5" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A28" s="8" t="s"/>
       <x:c r="B28" s="8" t="s"/>
       <x:c r="C28" s="8" t="s"/>
       <x:c r="D28" s="8" t="s"/>
       <x:c r="E28" s="7" t="s"/>
     </x:row>
-    <x:row r="29" spans="1:5" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="29" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A29" s="8" t="s"/>
       <x:c r="B29" s="8" t="s"/>
       <x:c r="C29" s="8" t="s"/>
       <x:c r="D29" s="8" t="s"/>
       <x:c r="E29" s="7" t="s"/>
     </x:row>
-    <x:row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A30" s="8" t="s"/>
       <x:c r="B30" s="8" t="s"/>
       <x:c r="C30" s="8" t="s"/>
       <x:c r="D30" s="8" t="s"/>
     </x:row>
-    <x:row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A31" s="8" t="s"/>
       <x:c r="B31" s="8" t="s"/>
       <x:c r="C31" s="8" t="s"/>
       <x:c r="D31" s="8" t="s"/>
     </x:row>
-    <x:row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A32" s="8" t="s"/>
       <x:c r="B32" s="8" t="s"/>
       <x:c r="C32" s="8" t="s"/>
       <x:c r="D32" s="8" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A33" s="8" t="s"/>
       <x:c r="B33" s="8" t="s"/>
       <x:c r="C33" s="8" t="s"/>
       <x:c r="D33" s="8" t="s"/>
     </x:row>
-    <x:row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A34" s="8" t="s"/>
       <x:c r="B34" s="8" t="s"/>
       <x:c r="C34" s="8" t="s"/>
       <x:c r="D34" s="8" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A35" s="8" t="s"/>
       <x:c r="B35" s="8" t="s"/>
       <x:c r="C35" s="8" t="s"/>
       <x:c r="D35" s="8" t="s"/>
     </x:row>
-    <x:row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A36" s="8" t="s"/>
       <x:c r="B36" s="8" t="s"/>
       <x:c r="C36" s="8" t="s"/>
       <x:c r="D36" s="8" t="s"/>
     </x:row>
-    <x:row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A37" s="8" t="s"/>
       <x:c r="B37" s="8" t="s"/>
       <x:c r="C37" s="8" t="s"/>
       <x:c r="D37" s="8" t="s"/>
     </x:row>
-    <x:row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A38" s="8" t="s"/>
       <x:c r="B38" s="8" t="s"/>
       <x:c r="C38" s="8" t="s"/>
       <x:c r="D38" s="8" t="s"/>
     </x:row>
-    <x:row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A39" s="8" t="s"/>
       <x:c r="B39" s="8" t="s"/>
       <x:c r="C39" s="8" t="s"/>
       <x:c r="D39" s="8" t="s"/>
     </x:row>
-    <x:row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A40" s="8" t="s"/>
       <x:c r="B40" s="8" t="s"/>
       <x:c r="C40" s="8" t="s"/>
       <x:c r="D40" s="8" t="s"/>
     </x:row>
-    <x:row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A41" s="8" t="s"/>
       <x:c r="B41" s="8" t="s"/>
       <x:c r="C41" s="8" t="s"/>
       <x:c r="D41" s="8" t="s"/>
     </x:row>
-    <x:row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A42" s="8" t="s"/>
       <x:c r="B42" s="8" t="s"/>
       <x:c r="C42" s="8" t="s"/>
       <x:c r="D42" s="8" t="s"/>
     </x:row>
-    <x:row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A43" s="8" t="s"/>
       <x:c r="B43" s="8" t="s"/>
       <x:c r="C43" s="8" t="s"/>
       <x:c r="D43" s="8" t="s"/>
     </x:row>
-    <x:row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A44" s="8" t="s"/>
       <x:c r="B44" s="8" t="s"/>
       <x:c r="C44" s="8" t="s"/>
       <x:c r="D44" s="8" t="s"/>
     </x:row>
-    <x:row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A45" s="8" t="s"/>
       <x:c r="B45" s="8" t="s"/>
       <x:c r="C45" s="8" t="s"/>
       <x:c r="D45" s="8" t="s"/>
     </x:row>
-    <x:row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <x:row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A46" s="8" t="s"/>
       <x:c r="B46" s="8" t="s"/>
       <x:c r="C46" s="8" t="s"/>
       <x:c r="D46" s="8" t="s"/>
-      <x:c r="E46" s="9" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <x:c r="E46" s="10" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A47" s="8" t="s"/>
       <x:c r="B47" s="8" t="s"/>
       <x:c r="C47" s="8" t="s"/>
       <x:c r="D47" s="8" t="s"/>
-      <x:c r="E47" s="9" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <x:c r="E47" s="10" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A48" s="8" t="s"/>
       <x:c r="B48" s="8" t="s"/>
       <x:c r="C48" s="8" t="s"/>
       <x:c r="D48" s="8" t="s"/>
-      <x:c r="E48" s="9" t="s"/>
+      <x:c r="E48" s="10" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1143,7 +984,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
